--- a/outlook_export_geocoded.xlsx
+++ b/outlook_export_geocoded.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TolgaSevencan\Downloads\Github\Coordinate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F53604-F34B-4087-A79A-27D4852D0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>Subject</t>
   </si>
@@ -40,98 +34,245 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
   <si>
-    <t>Ende des Tages</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>17:29:00</t>
-  </si>
-  <si>
-    <t>Eichholzstrasse 14, 8706 Meilen</t>
-  </si>
-  <si>
-    <t>Kinderarzt</t>
-  </si>
-  <si>
-    <t>08:45:00</t>
+    <t>Homeoffice</t>
+  </si>
+  <si>
+    <t>Chur; WeberPrevost, Jamey Thöni, Matthias Walser, Alen Mujadic; Thema gemeinsames Mittagessen, Offerten besprechen</t>
+  </si>
+  <si>
+    <t>Znüni mit anschliessender Besprechung Strassenkappen Wild</t>
+  </si>
+  <si>
+    <t>Davos; Tiefbauamt Reto Michel; Thema Einbau Pamrex Flansch oder Betonsockel, Abholung 3D Modelle</t>
+  </si>
+  <si>
+    <t>Treffpunkt Bahnhof Klosters Dorf</t>
+  </si>
+  <si>
+    <t>Klosters; Aquagrischa, Markus Vetsch, Thema: Zusammenarbeit</t>
+  </si>
+  <si>
+    <t>Betreuung kranker Familienangehöriger</t>
+  </si>
+  <si>
+    <t>Fahrzeit nach Lostorf</t>
+  </si>
+  <si>
+    <t>Suisstec Weiterbildung NPK 412 Erdverlegte Trinkwasseeleitungen</t>
+  </si>
+  <si>
+    <t>Zillis; Tiri Haustechnik, Curdin Tiri; Thema Vorstellung Allgemeiner Besuch</t>
+  </si>
+  <si>
+    <t>Homeoffice, Bearbeitung offener Pendenzen</t>
+  </si>
+  <si>
+    <t>Domat/Ems; Grünenfelder Gion Carla Dosch; Thema Zonenventil Tamins, gemeinsames Mittagessen</t>
+  </si>
+  <si>
+    <t>Tamins/DomatEms; Grünenfelder ing. GionCarla Dosch, Gem. Tamins Mario Kohler, Gem. DomatEms Luca Cavigelli; Thema Unterstützung Problemlösung Wasserabgabe DomatEms</t>
+  </si>
+  <si>
+    <t>Sils i.E.; Gem. WV Nutal Tombretta, Michael Soland; Thema Offerierte Brunnenventile, Schachtguss "Bodenabläufe" Wiesen, gemeinsamer Znüni</t>
+  </si>
+  <si>
+    <t>St.Moritz; Gem. Bauamt, Andri Massüger; Thema Allgemeiner Besuch zufriedenheit Schachtguss</t>
+  </si>
+  <si>
+    <t>Pontresina; Gem. WV Gian Andri Lehner; Thema Vorstellung Spühlventil, gemeinsames Mittagessen</t>
+  </si>
+  <si>
+    <t>Zuoz; Vitali Haustechnik Silvano Plebani; Thema Rohrumfang sehr gross DN125 Baustelle Via Maistra, Projekt Sur Mulin 2026</t>
+  </si>
+  <si>
+    <t>Sargans; WV Hansruedi John, TB Roland Pfiffner; Thema Schachtguss Präsentation, Eco Spühlventil Präsentation</t>
+  </si>
+  <si>
+    <t>Malans; D&amp;A Guido Del Giacco; Thema Allgemein Offerten, Bestellungen, Projekte</t>
+  </si>
+  <si>
+    <t>Tamins; WV Mario Kohler; Thema Einregulierung Zonenventil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fr. Räber </t>
+  </si>
+  <si>
+    <t>Tuffli Partner AG Chur; Vorstellung Schachtguss Sortiment</t>
+  </si>
+  <si>
+    <t>Homeoffice Demothekbesuch Davos fertig, Demothekbescuh Lisignoli AG planen</t>
+  </si>
+  <si>
+    <t>Spital Thusis Komplikationsuntersuch OP</t>
+  </si>
+  <si>
+    <t>Davos; Diag Ing. Urs Büchi; Thema Vorstellung, Projekt Verladebahnhof Selfranga</t>
+  </si>
+  <si>
+    <t>Thusis; Gem. Werk Roman Beeli, Gem. WV Stephan Rottensteiner; Thema Schachtguss Vorstellung</t>
+  </si>
+  <si>
+    <t>Thusis; WV Stefan Rottensteiner; Thema Düsenrückschlag Res. Ruvria, Allgemeiner Besuch, Projekte gemeinsames Mittagessen</t>
+  </si>
+  <si>
+    <t>Thusis; Gemeinderat Werni Elmer ; Thema Vorstellung Nachhaltige Zukunftszusammenarbeit</t>
+  </si>
+  <si>
+    <t>Krankheit</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>11:45:00</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>06:00:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
   </si>
   <si>
     <t>10:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">General-Wille Strasse 204, 8706 Meilen </t>
-  </si>
-  <si>
-    <t>Tagesaufgaben festlegen und planen</t>
-  </si>
-  <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>07:44:00</t>
-  </si>
-  <si>
-    <t>Test Termin 4</t>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>13:15:00</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>10:45:00</t>
+  </si>
+  <si>
+    <t>13:45:00</t>
+  </si>
+  <si>
+    <t>16:24:00</t>
   </si>
   <si>
     <t>16:00:00</t>
   </si>
   <si>
-    <t>16:30:00</t>
-  </si>
-  <si>
-    <t>Bahnhofwiese 1, 8712 Stäfa</t>
-  </si>
-  <si>
-    <t>Test Termin 3</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>15:30:00</t>
-  </si>
-  <si>
-    <t>Buechstrasse 25, 8645 Rapperswil-Jona</t>
-  </si>
-  <si>
-    <t>Test Termin 2</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
+    <t>18:00:00</t>
   </si>
   <si>
     <t>14:30:00</t>
   </si>
   <si>
-    <t>Test Termin 1</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
-    <t>Eichwiesstrasse 10, 8645 Rapperswil-Jona</t>
+    <t>Hotel Sommerau (Emserstrasse 4, 7000 Chur Graubünden, Schweiz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant Dörfij, Bahnhofstrasse 3 </t>
+  </si>
+  <si>
+    <t>Aquagrischa Klosters</t>
+  </si>
+  <si>
+    <t>suissetec Campus, Grundstrasse 1, 4654 Lostorf</t>
+  </si>
+  <si>
+    <t>Restaurant Sporthütta (152,Via Maistra, 7504 Pontresina Graubünden, Schweiz)</t>
+  </si>
+  <si>
+    <t>Entsorgungsanlage (Werkhof Sargans) (Falknisstrasse 3, Sargans  Sankt Gallen)</t>
+  </si>
+  <si>
+    <t>Restaurant Holländer Landquart</t>
+  </si>
+  <si>
+    <t>Ristorante Pizzeria Bernina (Neudorfstrasse 100, 7430  Thusis  Graubünden)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+________________________________
+Diese Nachricht (wie auch allfällige Anlagen dazu) ist nur für den/die Empfänger/in bestimmt und kann vertrauliche und/oder gesetzlich geschützte Daten oder Informationen enthalten. Wenn Sie die Nachricht irrtümlich oder fälschlicherweise erhalten haben, benachrichtigen Sie bitte den/die Absender/in und löschen Sie die Nachricht mitsamt den Anlagen. Vielen Dank! Wenn Sie nicht der rechtmässige Empfänger sind, ist jeder mögliche Gebrauch, Weiterleitung, Versenden, Ausdrucken oder Kopieren dieser Nachricht (wie auch allfälliger Anlagen dazu) ausdrücklich untersagt und widerrechtlich. Wir weisen darauf hin, dass Internetkommunikation möglicherweise unsicher oder fehlerhaft ist. Sie kann versehentlich oder absichtlich manipuliert sein. Deshalb lehnen wir jegliche Haftung für Schäden ab, die aus der Übermittlung von E-Mails entstehen können. 
+________________________________
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guten Tag Herr Huonder
+Besten Dank für die Terminbestätigung. Anbei sende ich Ihnen die Termineinladung für Outlook. Ich freue mich, Ihnen am 11. September um 8.30 Uhr unser Komplettsortiment Schachtguss zu präsentieren.
+Freundliche Grüsse
+Cordiels Salüds
+Cordiali Saluti
+Beat Majoleth
+Gebietsverantwortlicher
+Graubünden / Liechtenstein
+ &lt;https://www.wildarmaturen.ch/&gt; 
+Wild Armaturen AG
+Buechstrasse 31
+CH-8645 Jona-Rapperswil
+Tel. +41 (0)55 224 04 04
+Fax +41 (0)55 224 04 44
+www.wildarmaturen.ch &lt;https://www.wildarmaturen.ch/&gt; 
+Tel. dir. +41 (0)79 557 04 24
+beat.majoleth@wildarmaturen.ch
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +283,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,21 +329,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -487,25 +623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,190 +655,590 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>45944</v>
+        <v>45901</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>45944</v>
+        <v>45901</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45901</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3">
+        <v>46.8462675</v>
+      </c>
+      <c r="I3">
+        <v>9.506380200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>47.281518900000002</v>
-      </c>
-      <c r="H2">
-        <v>8.6249871999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="2">
+        <v>45902</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45902</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
-        <v>45944</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" s="2">
+        <v>45902</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45902</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
-        <v>45944</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B6" s="2">
+        <v>45902</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45902</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B7" s="2">
+        <v>45902</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45902</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
-        <v>47.275853900000001</v>
-      </c>
-      <c r="H3">
-        <v>8.6209217999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" s="2">
+        <v>45903</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45903</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>45944</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B9" s="2">
+        <v>45904</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45904</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
-        <v>45944</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B10" s="2">
+        <v>45904</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45904</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>47.281518900000002</v>
-      </c>
-      <c r="H4">
-        <v>8.6249871999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" s="2">
+        <v>45905</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45905</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
-        <v>45944</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B12" s="2">
+        <v>45905</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45905</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="2">
+        <v>45908</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45908</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
-        <v>45944</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B14" s="2">
+        <v>45908</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45908</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B15" s="2">
+        <v>45908</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45908</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="G5">
-        <v>47.241613200000003</v>
-      </c>
-      <c r="H5">
-        <v>8.7218003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B16" s="2">
+        <v>45909</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45909</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
-        <v>45944</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B17" s="2">
+        <v>45909</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2">
+        <v>45909</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2">
-        <v>45944</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B18" s="2">
+        <v>45909</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45909</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B19" s="2">
+        <v>45909</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45909</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
-        <v>47.228065000000001</v>
-      </c>
-      <c r="H6">
-        <v>8.8668870999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B20" s="2">
+        <v>45910</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45910</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2">
-        <v>45944</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B21" s="2">
+        <v>45910</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45910</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2">
-        <v>45944</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B22" s="2">
+        <v>45910</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45910</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>47.281518900000002</v>
-      </c>
-      <c r="H7">
-        <v>8.6249871999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B23" s="2">
+        <v>45910</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45910</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2">
-        <v>45944</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B24" s="2">
+        <v>45911</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45911</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2">
-        <v>45944</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B25" s="2">
+        <v>45911</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45911</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B26" s="2">
+        <v>45911</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45911</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="G8">
-        <v>47.224646999999997</v>
-      </c>
-      <c r="H8">
-        <v>8.8355999999999995</v>
+      <c r="B27" s="2">
+        <v>45912</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45912</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45912</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45912</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45912</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45912</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45912</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45912</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45915</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45915</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>